--- a/MongoDB/Costs/Costs.xlsx
+++ b/MongoDB/Costs/Costs.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Matteo\Desktop\Università\Tirocinio-Unibo\MongoDB\Costs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3C6E4436-4F25-4695-9076-0A46ED5F86B4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FCDFEDF7-1076-4815-8072-6E0C0B8DD4C7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="136" uniqueCount="64">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="136" uniqueCount="65">
   <si>
     <t>embedding_A_in_B</t>
   </si>
@@ -224,9 +224,6 @@
     <t>tab interna | tabella esterna</t>
   </si>
   <si>
-    <t>Il foglio ha come esempio iI calcolo del join su A5 di refAB</t>
-  </si>
-  <si>
     <t xml:space="preserve">le tuple expected </t>
   </si>
   <si>
@@ -237,6 +234,12 @@
   </si>
   <si>
     <t>10947133.44</t>
+  </si>
+  <si>
+    <t>NK distinte -&gt;</t>
+  </si>
+  <si>
+    <t>Il foglio ha come esempio iI calcolo del join su B5 di refAB</t>
   </si>
 </sst>
 </file>
@@ -289,10 +292,11 @@
       <family val="2"/>
     </font>
     <font>
-      <b/>
-      <sz val="19"/>
+      <sz val="11"/>
       <color rgb="FF444444"/>
-      <name val="Roboto"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="14">
@@ -387,7 +391,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="51">
+  <cellXfs count="52">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -465,9 +469,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="12" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="13" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -495,6 +496,12 @@
     </xf>
     <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normale" xfId="0" builtinId="0"/>
@@ -877,10 +884,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:S79"/>
+  <dimension ref="A1:W79"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="81" zoomScaleNormal="81" workbookViewId="0">
-      <selection activeCell="F5" sqref="F5"/>
+      <selection activeCell="H1" sqref="H1:H1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -892,12 +899,13 @@
     <col min="6" max="6" width="19.5703125" customWidth="1"/>
     <col min="7" max="10" width="17" customWidth="1"/>
     <col min="13" max="13" width="18.5703125" customWidth="1"/>
+    <col min="14" max="14" width="15.5703125" customWidth="1"/>
     <col min="15" max="15" width="9.42578125" customWidth="1"/>
     <col min="17" max="17" width="10" customWidth="1"/>
     <col min="18" max="18" width="12.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A1" s="2">
         <v>100000</v>
       </c>
@@ -905,7 +913,7 @@
         <v>1.0000000000000001E+106</v>
       </c>
     </row>
-    <row r="2" spans="1:18" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:23" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="3"/>
       <c r="C2" s="4" t="s">
         <v>0</v>
@@ -932,51 +940,51 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:18" s="13" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:23" s="13" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="3"/>
       <c r="B3" s="1"/>
-      <c r="C3" s="4"/>
-      <c r="D3" s="5"/>
-      <c r="E3" s="6"/>
-      <c r="F3" s="7"/>
-      <c r="G3" s="8"/>
-      <c r="H3" s="8"/>
-      <c r="I3" s="9"/>
-      <c r="J3" s="10"/>
-      <c r="Q3" s="11"/>
+      <c r="C3" s="39"/>
+      <c r="D3" s="40"/>
+      <c r="E3" s="41"/>
+      <c r="F3" s="40"/>
+      <c r="G3" s="40"/>
+      <c r="H3" s="40"/>
+      <c r="I3" s="41"/>
+      <c r="J3" s="41"/>
+      <c r="Q3" s="45"/>
       <c r="R3" s="12"/>
     </row>
-    <row r="4" spans="1:18" s="13" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:23" s="13" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="3"/>
       <c r="B4" s="1"/>
-      <c r="C4" s="40"/>
-      <c r="D4" s="41"/>
-      <c r="E4" s="42"/>
-      <c r="F4" s="41"/>
-      <c r="G4" s="41"/>
-      <c r="H4" s="41"/>
-      <c r="I4" s="42"/>
-      <c r="J4" s="42"/>
-      <c r="Q4" s="11"/>
+      <c r="C4" s="39"/>
+      <c r="D4" s="40"/>
+      <c r="E4" s="41"/>
+      <c r="F4" s="40"/>
+      <c r="G4" s="40"/>
+      <c r="H4" s="40"/>
+      <c r="I4" s="41"/>
+      <c r="J4" s="41"/>
+      <c r="Q4" s="45"/>
       <c r="R4" s="12"/>
     </row>
-    <row r="5" spans="1:18" s="13" customFormat="1" ht="29.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:23" s="13" customFormat="1" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="B5" s="42" t="s">
+        <v>60</v>
+      </c>
+      <c r="C5" s="39"/>
+      <c r="D5" s="40"/>
+      <c r="E5" s="50" t="s">
         <v>62</v>
       </c>
-      <c r="B5" s="43" t="s">
-        <v>61</v>
-      </c>
-      <c r="C5" s="40"/>
-      <c r="D5" s="41"/>
-      <c r="E5" s="42" t="s">
-        <v>63</v>
-      </c>
-      <c r="F5" s="50">
+      <c r="F5" s="49">
         <v>1024000</v>
       </c>
-      <c r="G5" s="41"/>
-      <c r="H5" s="41"/>
+      <c r="G5" s="40"/>
+      <c r="H5" s="40"/>
       <c r="I5" s="13">
         <v>983040</v>
       </c>
@@ -984,10 +992,10 @@
         <v>10842275.84</v>
       </c>
       <c r="L5" s="17"/>
-      <c r="Q5" s="11"/>
+      <c r="Q5" s="45"/>
       <c r="R5" s="12"/>
     </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:23" x14ac:dyDescent="0.25">
       <c r="G6" s="13"/>
       <c r="H6" s="13"/>
       <c r="I6" s="20" t="s">
@@ -996,12 +1004,13 @@
       <c r="J6" s="20" t="s">
         <v>13</v>
       </c>
-      <c r="M6" s="39" t="s">
+      <c r="M6" s="51" t="s">
         <v>7</v>
       </c>
-      <c r="N6" s="39"/>
-    </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="N6" s="51"/>
+      <c r="W6" s="33"/>
+    </row>
+    <row r="7" spans="1:23" x14ac:dyDescent="0.25">
       <c r="B7" s="1" t="s">
         <v>8</v>
       </c>
@@ -1026,7 +1035,7 @@
         <v>1000000</v>
       </c>
     </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:23" x14ac:dyDescent="0.25">
       <c r="C8" s="14"/>
       <c r="F8" s="16"/>
       <c r="G8" s="17"/>
@@ -1036,7 +1045,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="9" spans="1:18" ht="30" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:23" ht="30" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
         <v>10</v>
       </c>
@@ -1050,7 +1059,7 @@
         <v>11776</v>
       </c>
       <c r="E9">
-        <v>1085.44</v>
+        <v>1095.68</v>
       </c>
       <c r="F9">
         <v>1157.1199999999999</v>
@@ -1072,7 +1081,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:23" x14ac:dyDescent="0.25">
       <c r="C10" s="20" t="s">
         <v>13</v>
       </c>
@@ -1094,7 +1103,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="11" spans="1:18" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:23" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="3" t="s">
         <v>14</v>
       </c>
@@ -1125,10 +1134,10 @@
         <v>16</v>
       </c>
       <c r="O11" s="22">
-        <v>100000</v>
-      </c>
-    </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.25">
+        <v>1000000</v>
+      </c>
+    </row>
+    <row r="12" spans="1:23" x14ac:dyDescent="0.25">
       <c r="C12" s="20" t="s">
         <v>13</v>
       </c>
@@ -1150,7 +1159,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="13" spans="1:18" ht="30" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:23" ht="30" x14ac:dyDescent="0.25">
       <c r="A13" s="3" t="s">
         <v>17</v>
       </c>
@@ -1175,10 +1184,10 @@
         <v>19</v>
       </c>
       <c r="O13" s="11">
-        <v>565248</v>
-      </c>
-    </row>
-    <row r="14" spans="1:18" x14ac:dyDescent="0.25">
+        <v>4096</v>
+      </c>
+    </row>
+    <row r="14" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A14" s="3"/>
       <c r="B14" s="23"/>
       <c r="C14" s="24"/>
@@ -1196,7 +1205,7 @@
       </c>
       <c r="J14" s="27"/>
     </row>
-    <row r="15" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A15" s="3" t="s">
         <v>20</v>
       </c>
@@ -1225,10 +1234,10 @@
       </c>
       <c r="O15" s="15">
         <f>ROUNDUP((O9 * 4 + O11 * 4)/ (O13 * 0.69),0)</f>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="16" spans="1:18" x14ac:dyDescent="0.25">
+        <v>1416</v>
+      </c>
+    </row>
+    <row r="16" spans="1:23" x14ac:dyDescent="0.25">
       <c r="B16" s="23"/>
       <c r="C16" s="24"/>
       <c r="E16" s="25"/>
@@ -1283,7 +1292,7 @@
       </c>
       <c r="O18">
         <f>ROUNDDOWN((O13 - 4)/16,0)</f>
-        <v>35327</v>
+        <v>255</v>
       </c>
     </row>
     <row r="19" spans="1:19" x14ac:dyDescent="0.25">
@@ -1345,20 +1354,20 @@
       </c>
       <c r="O21">
         <f>ROUNDUP(LOG(O15,2*O18+1) + 1,0)</f>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="P21" t="s">
         <v>28</v>
       </c>
       <c r="Q21" s="15">
         <f>SUM(ROUNDDOWN(LOG(O15/2,O18+1),1), 2)</f>
-        <v>2</v>
+        <v>3.1</v>
       </c>
       <c r="R21" t="s">
         <v>29</v>
       </c>
       <c r="S21" s="38">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="22" spans="1:19" x14ac:dyDescent="0.25">
@@ -1400,11 +1409,11 @@
         <v>10</v>
       </c>
       <c r="J23" s="26"/>
-      <c r="M23" s="39" t="s">
+      <c r="M23" s="51" t="s">
         <v>30</v>
       </c>
-      <c r="N23" s="39"/>
-      <c r="O23" s="39"/>
+      <c r="N23" s="51"/>
+      <c r="O23" s="51"/>
     </row>
     <row r="24" spans="1:19" x14ac:dyDescent="0.25">
       <c r="G24" s="13"/>
@@ -1435,7 +1444,7 @@
         <v>16</v>
       </c>
       <c r="O25" s="22">
-        <v>1000000</v>
+        <v>100000</v>
       </c>
     </row>
     <row r="26" spans="1:19" x14ac:dyDescent="0.25">
@@ -1520,7 +1529,7 @@
         <v>19</v>
       </c>
       <c r="O29" s="11">
-        <v>1084479242.24</v>
+        <v>4096</v>
       </c>
     </row>
     <row r="30" spans="1:19" x14ac:dyDescent="0.25">
@@ -1567,7 +1576,7 @@
       </c>
       <c r="O31">
         <f>ROUNDUP((O25*O27)/(O29 * 0.69),0)</f>
-        <v>2</v>
+        <v>38406</v>
       </c>
     </row>
     <row r="32" spans="1:19" x14ac:dyDescent="0.25">
@@ -1617,11 +1626,11 @@
       <c r="J34" s="20" t="s">
         <v>13</v>
       </c>
-      <c r="M34" s="39" t="s">
+      <c r="M34" s="51" t="s">
         <v>36</v>
       </c>
-      <c r="N34" s="39"/>
-      <c r="O34" s="39"/>
+      <c r="N34" s="51"/>
+      <c r="O34" s="51"/>
     </row>
     <row r="35" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A35" s="3" t="s">
@@ -1646,10 +1655,10 @@
       </c>
     </row>
     <row r="36" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="G36" s="44"/>
-      <c r="H36" s="45"/>
-      <c r="I36" s="46"/>
-      <c r="J36" s="46"/>
+      <c r="G36" s="43"/>
+      <c r="H36" s="44"/>
+      <c r="I36" s="45"/>
+      <c r="J36" s="45"/>
       <c r="N36" t="s">
         <v>16</v>
       </c>
@@ -1669,25 +1678,25 @@
       <c r="E37">
         <v>4299161.5999999996</v>
       </c>
-      <c r="G37" s="44"/>
-      <c r="H37" s="45"/>
-      <c r="I37" s="46"/>
-      <c r="J37" s="46"/>
+      <c r="G37" s="43"/>
+      <c r="H37" s="44"/>
+      <c r="I37" s="45"/>
+      <c r="J37" s="45"/>
     </row>
     <row r="38" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A38"/>
       <c r="B38"/>
       <c r="C38" s="3"/>
       <c r="D38" s="23"/>
-      <c r="G38" s="44"/>
-      <c r="H38" s="45"/>
-      <c r="I38" s="47"/>
-      <c r="J38" s="46"/>
+      <c r="G38" s="43"/>
+      <c r="H38" s="44"/>
+      <c r="I38" s="46"/>
+      <c r="J38" s="45"/>
       <c r="N38" t="s">
         <v>32</v>
       </c>
       <c r="O38" s="11">
-        <v>1157.1199999999999</v>
+        <v>1095.68</v>
       </c>
     </row>
     <row r="39" spans="1:19" x14ac:dyDescent="0.25">
@@ -1703,25 +1712,25 @@
         <v>1000000</v>
       </c>
       <c r="F39" s="32"/>
-      <c r="G39" s="48"/>
-      <c r="H39" s="48"/>
-      <c r="I39" s="49"/>
-      <c r="J39" s="46"/>
+      <c r="G39" s="47"/>
+      <c r="H39" s="47"/>
+      <c r="I39" s="48"/>
+      <c r="J39" s="45"/>
     </row>
     <row r="40" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A40"/>
       <c r="B40"/>
       <c r="C40" s="1"/>
       <c r="D40" s="1"/>
-      <c r="G40" s="44"/>
-      <c r="H40" s="45"/>
-      <c r="I40" s="46"/>
-      <c r="J40" s="46"/>
+      <c r="G40" s="43"/>
+      <c r="H40" s="44"/>
+      <c r="I40" s="45"/>
+      <c r="J40" s="45"/>
       <c r="N40" t="s">
         <v>19</v>
       </c>
       <c r="O40" s="11">
-        <v>115804733.44</v>
+        <v>4096</v>
       </c>
     </row>
     <row r="41" spans="1:19" x14ac:dyDescent="0.25">
@@ -1736,10 +1745,10 @@
       <c r="E41">
         <v>364544</v>
       </c>
-      <c r="G41" s="44"/>
-      <c r="H41" s="45"/>
-      <c r="I41" s="46"/>
-      <c r="J41" s="46"/>
+      <c r="G41" s="43"/>
+      <c r="H41" s="44"/>
+      <c r="I41" s="45"/>
+      <c r="J41" s="45"/>
     </row>
     <row r="42" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A42"/>
@@ -1747,16 +1756,16 @@
       <c r="C42" s="3"/>
       <c r="D42" s="23"/>
       <c r="F42" s="16"/>
-      <c r="G42" s="44"/>
-      <c r="H42" s="45"/>
-      <c r="I42" s="46"/>
-      <c r="J42" s="47"/>
+      <c r="G42" s="43"/>
+      <c r="H42" s="44"/>
+      <c r="I42" s="45"/>
+      <c r="J42" s="46"/>
       <c r="N42" t="s">
         <v>34</v>
       </c>
       <c r="O42">
         <f>ROUNDUP((O36*O38)/(O40 * 0.69),0)</f>
-        <v>2</v>
+        <v>38769</v>
       </c>
     </row>
     <row r="43" spans="1:19" x14ac:dyDescent="0.25">
@@ -1771,10 +1780,10 @@
       <c r="E43" s="14">
         <v>100000</v>
       </c>
-      <c r="G43" s="46"/>
-      <c r="H43" s="46"/>
-      <c r="I43" s="46"/>
-      <c r="J43" s="49"/>
+      <c r="G43" s="45"/>
+      <c r="H43" s="45"/>
+      <c r="I43" s="45"/>
+      <c r="J43" s="48"/>
     </row>
     <row r="45" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A45" s="3"/>
@@ -1787,13 +1796,13 @@
       <c r="F45" s="14"/>
       <c r="G45" s="14"/>
       <c r="H45" s="14"/>
-      <c r="M45" s="39" t="s">
+      <c r="M45" s="51" t="s">
         <v>41</v>
       </c>
-      <c r="N45" s="39"/>
-      <c r="O45" s="39"/>
+      <c r="N45" s="51"/>
+      <c r="O45" s="51"/>
       <c r="Q45" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="46" spans="1:19" x14ac:dyDescent="0.25">
@@ -1808,13 +1817,13 @@
       <c r="A47" s="3"/>
       <c r="B47" s="23"/>
       <c r="D47" t="s">
-        <v>59</v>
+        <v>64</v>
       </c>
       <c r="N47" t="s">
-        <v>12</v>
+        <v>63</v>
       </c>
       <c r="O47" s="11">
-        <v>100</v>
+        <v>10000</v>
       </c>
       <c r="S47" s="33"/>
     </row>
@@ -1828,8 +1837,8 @@
         <v>43</v>
       </c>
       <c r="O49">
-        <f>SUM(S21 - 1,QUOTIENT(1,O47) * O15, POWER(O9, -1) * O42)</f>
-        <v>1.02</v>
+        <f>SUM(S21 - 1,QUOTIENT(1,O9) * O15,  (O11/ O9)* O42)</f>
+        <v>387690002</v>
       </c>
     </row>
     <row r="50" spans="1:18" x14ac:dyDescent="0.25">
@@ -1844,7 +1853,7 @@
       </c>
       <c r="O51" s="33">
         <f>SUM(O31, O47 * O49)</f>
-        <v>104</v>
+        <v>3876900058406</v>
       </c>
     </row>
     <row r="53" spans="1:18" x14ac:dyDescent="0.25">
@@ -1947,7 +1956,7 @@
   <dimension ref="B1:Q16"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H8" sqref="H8"/>
+      <selection activeCell="J1" sqref="J1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
